--- a/biology/Histoire de la zoologie et de la botanique/Emmanuel_Fauré-Frémiet/Emmanuel_Fauré-Frémiet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emmanuel_Fauré-Frémiet/Emmanuel_Fauré-Frémiet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emmanuel_Faur%C3%A9-Fr%C3%A9miet</t>
+          <t>Emmanuel_Fauré-Frémiet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuel Fauré-Frémiet, né le 29 décembre 1883 dans le 17e arrondissement de Paris[1],[2], ville où il est mort le 6 novembre 1971 en son domicile dans le 5e arrondissement[3] est un zoologiste français, 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel Fauré-Frémiet, né le 29 décembre 1883 dans le 17e arrondissement de Paris ville où il est mort le 6 novembre 1971 en son domicile dans le 5e arrondissement est un zoologiste français, 
 Spécialiste des ciliés, il fut président de la Société zoologique de France en 1941 et membre de l'Académie des sciences.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emmanuel_Faur%C3%A9-Fr%C3%A9miet</t>
+          <t>Emmanuel_Fauré-Frémiet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du compositeur Gabriel Fauré et de Marie Frémiet, fille du sculpteur Emmanuel Frémiet. Le 15 mars 1913, il épouse à Paris, 5ème Jeanne Henneguy (1879-1960), fille de Louis-Félix Henneguy, petite-fille de Pierre-Joseph Proudhon.
 </t>
